--- a/cdn_network_5L.xlsx
+++ b/cdn_network_5L.xlsx
@@ -7,11 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Level_0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Level_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Level_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Level_3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Level_4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Overview" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Level_0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Level_1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Level_2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Level_3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Level_4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,13 +33,63 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <sz val="9"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="16"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6FFE6"/>
+        <bgColor rgb="00E6FFE6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE6E6"/>
+        <bgColor rgb="00FFE6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0E0E0"/>
+        <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFE6"/>
+        <bgColor rgb="00FFFFE6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -59,11 +110,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,6 +523,232 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="25" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="20" customWidth="1" min="21" max="21"/>
+    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="20" customWidth="1" min="23" max="23"/>
+    <col width="20" customWidth="1" min="24" max="24"/>
+    <col width="20" customWidth="1" min="25" max="25"/>
+    <col width="20" customWidth="1" min="26" max="26"/>
+    <col width="20" customWidth="1" min="27" max="27"/>
+    <col width="20" customWidth="1" min="28" max="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="20" t="inlineStr">
+        <is>
+          <t>Dependency Network Pyramid</t>
+        </is>
+      </c>
+      <c r="P1" s="13" t="inlineStr">
+        <is>
+          <t>Legend:</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="P2" s="14" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="Q2" s="15" t="inlineStr">
+        <is>
+          <t>Conservative (V &lt; F)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="P3" s="16" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="Q3" s="15" t="inlineStr">
+        <is>
+          <t>Aligned (V = F)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="P4" s="17" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="Q4" s="15" t="inlineStr">
+        <is>
+          <t>Inflated (V &gt; F)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="Q5" s="15" t="inlineStr">
+        <is>
+          <t>F = Fundamental score</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" s="18" t="inlineStr">
+        <is>
+          <t>LEVEL 4</t>
+        </is>
+      </c>
+      <c r="E6" s="12" t="inlineStr">
+        <is>
+          <t>0
+F:0.80
+V:0.30</t>
+        </is>
+      </c>
+      <c r="I6" s="12" t="inlineStr">
+        <is>
+          <t>1
+F:0.60
+V:0.20</t>
+        </is>
+      </c>
+      <c r="Q6" s="15" t="inlineStr">
+        <is>
+          <t>V = Visible score</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="18" t="inlineStr">
+        <is>
+          <t>LEVEL 3</t>
+        </is>
+      </c>
+      <c r="E10" s="12" t="inlineStr">
+        <is>
+          <t>0
+F:0.80
+V:0.40</t>
+        </is>
+      </c>
+      <c r="I10" s="12" t="inlineStr">
+        <is>
+          <t>1
+F:0.60
+V:0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="18" t="inlineStr">
+        <is>
+          <t>LEVEL 2</t>
+        </is>
+      </c>
+      <c r="E14" s="12" t="inlineStr">
+        <is>
+          <t>0
+F:0.80
+V:0.50</t>
+        </is>
+      </c>
+      <c r="I14" s="12" t="inlineStr">
+        <is>
+          <t>1
+F:0.60
+V:0.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="18" t="inlineStr">
+        <is>
+          <t>LEVEL 1</t>
+        </is>
+      </c>
+      <c r="C18" s="12" t="inlineStr">
+        <is>
+          <t>0
+F:0.80
+V:0.60</t>
+        </is>
+      </c>
+      <c r="G18" s="12" t="inlineStr">
+        <is>
+          <t>1
+F:0.60
+V:0.50</t>
+        </is>
+      </c>
+      <c r="K18" s="19" t="inlineStr">
+        <is>
+          <t>2
+F:0.80
+V:0.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="18" t="inlineStr">
+        <is>
+          <t>LEVEL 0
+(Base)</t>
+        </is>
+      </c>
+      <c r="E22" s="12" t="inlineStr">
+        <is>
+          <t>Node B
+0.60</t>
+        </is>
+      </c>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>Node C
+0.90</t>
+        </is>
+      </c>
+      <c r="M22" s="12" t="inlineStr">
+        <is>
+          <t>Node D
+0.70</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -494,7 +814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -550,7 +870,6 @@
       <c r="B2" t="n">
         <v>0.6</v>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
@@ -573,7 +892,6 @@
       <c r="B3" t="n">
         <v>0.5</v>
       </c>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
         <v>0</v>
       </c>
@@ -596,7 +914,6 @@
       <c r="B4" t="n">
         <v>0.85</v>
       </c>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>1</v>
       </c>
@@ -615,7 +932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -666,7 +983,6 @@
       <c r="B2" t="n">
         <v>0.4999999999999999</v>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
@@ -686,7 +1002,6 @@
       <c r="B3" t="n">
         <v>0.4</v>
       </c>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
         <v>0</v>
       </c>
@@ -694,82 +1009,6 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Apparent_Score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr"/>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>L2_0</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>L2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Level 3 Node 0</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Level 3 Node 1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -806,25 +1045,98 @@
       <c r="C1" s="1" t="inlineStr"/>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>L3_0</t>
+          <t>L2_0</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>L3_1</t>
+          <t>L2_1</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Level 3 Node 0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Level 3 Node 1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Apparent_Score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>L3_0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>L3_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Level 4 Node 0</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0.2999999999999999</v>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
@@ -841,7 +1153,6 @@
       <c r="B3" t="n">
         <v>0.2</v>
       </c>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
         <v>0</v>
       </c>
